--- a/exports/SouthernLabs_MCC_Week_1.xlsx
+++ b/exports/SouthernLabs_MCC_Week_1.xlsx
@@ -17,13 +17,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00003366"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -56,9 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,137 +443,161 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1"/>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Southern Labs Institute of Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Attendance Report: MCC - Week 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Middle Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>ID/Passport</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>Ethnicity</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Course</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Idah</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Khumalo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9106250120082</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>lindiwekhumalo833@gmail.com</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>0671114441</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>MCC</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>2026-02-10 17:14:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Facilitator Signature: ___________________________</t>
         </is>
       </c>
     </row>

--- a/exports/SouthernLabs_MCC_Week_1.xlsx
+++ b/exports/SouthernLabs_MCC_Week_1.xlsx
@@ -459,14 +459,14 @@
   <sheetData>
     <row r="1"/>
     <row r="2">
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Southern Labs Institute of Technology</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Attendance Report: MCC - Week 1</t>
         </is>
